--- a/src/embedded_results/3_embedded.xlsx
+++ b/src/embedded_results/3_embedded.xlsx
@@ -54,10 +54,10 @@
     <t>547.1</t>
   </si>
   <si>
-    <t>155.133</t>
-  </si>
-  <si>
-    <t>65.3842</t>
+    <t>155.023</t>
+  </si>
+  <si>
+    <t>65.3942</t>
   </si>
   <si>
     <t>463.0</t>
@@ -84,10 +84,10 @@
     <t>161.032</t>
   </si>
   <si>
-    <t>75.2503</t>
-  </si>
-  <si>
-    <t>475.1</t>
+    <t>75.2413</t>
+  </si>
+  <si>
+    <t>475.0</t>
   </si>
   <si>
     <t>163.022</t>
@@ -99,10 +99,10 @@
     <t>5475.0</t>
   </si>
   <si>
-    <t>165.133</t>
-  </si>
-  <si>
-    <t>81.9943</t>
+    <t>165.032</t>
+  </si>
+  <si>
+    <t>81.9843</t>
   </si>
   <si>
     <t>546.1</t>
@@ -123,34 +123,34 @@
     <t>88.5383</t>
   </si>
   <si>
-    <t>171.133</t>
-  </si>
-  <si>
-    <t>91.8603</t>
+    <t>171.023</t>
+  </si>
+  <si>
+    <t>91.8613</t>
   </si>
   <si>
     <t>436.0</t>
   </si>
   <si>
-    <t>175.033</t>
-  </si>
-  <si>
-    <t>98.4042</t>
+    <t>175.022</t>
+  </si>
+  <si>
+    <t>98.4053</t>
   </si>
   <si>
     <t>345.1</t>
   </si>
   <si>
-    <t>101.9262</t>
-  </si>
-  <si>
-    <t>177.133</t>
-  </si>
-  <si>
-    <t>105.1592</t>
-  </si>
-  <si>
-    <t>179.032</t>
+    <t>101.9263</t>
+  </si>
+  <si>
+    <t>177.023</t>
+  </si>
+  <si>
+    <t>105.1492</t>
+  </si>
+  <si>
+    <t>179.122</t>
   </si>
   <si>
     <t>108.4602</t>
@@ -159,16 +159,16 @@
     <t>181.022</t>
   </si>
   <si>
-    <t>111.7933</t>
+    <t>111.6922</t>
   </si>
   <si>
     <t>183.133</t>
   </si>
   <si>
-    <t>115.1143</t>
-  </si>
-  <si>
-    <t>185.023</t>
+    <t>115.0043</t>
+  </si>
+  <si>
+    <t>185.033</t>
   </si>
   <si>
     <t>118.5272</t>
@@ -177,10 +177,10 @@
     <t>187.122</t>
   </si>
   <si>
-    <t>121.6492</t>
-  </si>
-  <si>
-    <t>189.123</t>
+    <t>121.6482</t>
+  </si>
+  <si>
+    <t>189.022</t>
   </si>
   <si>
     <t>125.1902</t>
@@ -189,16 +189,16 @@
     <t>191.132</t>
   </si>
   <si>
-    <t>128.4032</t>
-  </si>
-  <si>
-    <t>193.123</t>
-  </si>
-  <si>
-    <t>131.7352</t>
-  </si>
-  <si>
-    <t>195.122</t>
+    <t>128.4023</t>
+  </si>
+  <si>
+    <t>193.133</t>
+  </si>
+  <si>
+    <t>131.6342</t>
+  </si>
+  <si>
+    <t>195.132</t>
   </si>
   <si>
     <t>135.1463</t>
@@ -207,16 +207,16 @@
     <t>197.122</t>
   </si>
   <si>
-    <t>138.3792</t>
-  </si>
-  <si>
-    <t>199.022</t>
-  </si>
-  <si>
-    <t>141.6913</t>
-  </si>
-  <si>
-    <t>201.023</t>
+    <t>138.2783</t>
+  </si>
+  <si>
+    <t>199.122</t>
+  </si>
+  <si>
+    <t>141.6812</t>
+  </si>
+  <si>
+    <t>201.033</t>
   </si>
   <si>
     <t>145.0023</t>
@@ -225,10 +225,10 @@
     <t>203.132</t>
   </si>
   <si>
-    <t>148.2353</t>
-  </si>
-  <si>
-    <t>205.022</t>
+    <t>148.2342</t>
+  </si>
+  <si>
+    <t>205.033</t>
   </si>
   <si>
     <t>151.6563</t>
@@ -237,16 +237,16 @@
     <t>207.122</t>
   </si>
   <si>
-    <t>154.8683</t>
-  </si>
-  <si>
-    <t>209.132</t>
-  </si>
-  <si>
-    <t>462.000000100111</t>
-  </si>
-  <si>
-    <t>158.3012</t>
+    <t>154.9783</t>
+  </si>
+  <si>
+    <t>209.122</t>
+  </si>
+  <si>
+    <t>462.000001100101</t>
+  </si>
+  <si>
+    <t>158.3002</t>
   </si>
   <si>
     <t>488.000000100101</t>
@@ -255,10 +255,10 @@
     <t>161.6223</t>
   </si>
   <si>
-    <t>514.100000010001</t>
-  </si>
-  <si>
-    <t>164.9443</t>
+    <t>514.100000100101</t>
+  </si>
+  <si>
+    <t>164.8443</t>
   </si>
   <si>
     <t>540.000000000001</t>
@@ -267,16 +267,16 @@
     <t>168.2663</t>
   </si>
   <si>
-    <t>566.101000000000</t>
-  </si>
-  <si>
-    <t>171.4893</t>
-  </si>
-  <si>
-    <t>592.100000110001</t>
-  </si>
-  <si>
-    <t>174.9102</t>
+    <t>566.001000000001</t>
+  </si>
+  <si>
+    <t>171.5893</t>
+  </si>
+  <si>
+    <t>592.100000100001</t>
+  </si>
+  <si>
+    <t>174.9003</t>
   </si>
   <si>
     <t>618.001001001000</t>
@@ -285,40 +285,40 @@
     <t>178.2323</t>
   </si>
   <si>
-    <t>644.001000000010</t>
-  </si>
-  <si>
-    <t>181.5542</t>
-  </si>
-  <si>
-    <t>670.111000000001</t>
-  </si>
-  <si>
-    <t>184.8773</t>
-  </si>
-  <si>
-    <t>696.001000000011</t>
-  </si>
-  <si>
-    <t>188.1983</t>
-  </si>
-  <si>
-    <t>722.000011000011</t>
-  </si>
-  <si>
-    <t>191.4202</t>
-  </si>
-  <si>
-    <t>748.010000000001</t>
+    <t>644.000000010000</t>
+  </si>
+  <si>
+    <t>181.5543</t>
+  </si>
+  <si>
+    <t>670.000000000001</t>
+  </si>
+  <si>
+    <t>184.8763</t>
+  </si>
+  <si>
+    <t>696.100000000011</t>
+  </si>
+  <si>
+    <t>188.1993</t>
+  </si>
+  <si>
+    <t>722.000011100001</t>
+  </si>
+  <si>
+    <t>191.5202</t>
+  </si>
+  <si>
+    <t>748.000000100101</t>
   </si>
   <si>
     <t>194.8433</t>
   </si>
   <si>
-    <t>774.000010100001</t>
-  </si>
-  <si>
-    <t>198.0643</t>
+    <t>774.000010000000</t>
+  </si>
+  <si>
+    <t>198.1643</t>
   </si>
 </sst>
 </file>
